--- a/Fase_1/Evidencias_Grupales/Plantilla Casos de prueba Integracion.xlsx
+++ b/Fase_1/Evidencias_Grupales/Plantilla Casos de prueba Integracion.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="93">
   <si>
     <t>UnidadTerritorial</t>
   </si>
@@ -185,10 +185,31 @@
     <t>CA005</t>
   </si>
   <si>
+    <t>Sistema de registro de usuario</t>
+  </si>
+  <si>
+    <t>Se harán pruebas de la funcionalidad de registro de usuario</t>
+  </si>
+  <si>
+    <t>Datos de usuario registrado, conexión a base de datos</t>
+  </si>
+  <si>
     <t>CA006</t>
   </si>
   <si>
+    <t>Sistema de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Se harán pruebas de la funcionalidad de inicio de sesióm</t>
+  </si>
+  <si>
     <t>CA007</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de usuarios</t>
+  </si>
+  <si>
+    <t>Se harán pruebas de la funcionalidad de gestión de usuarios</t>
   </si>
   <si>
     <t>CA008</t>
@@ -240,6 +261,66 @@
   </si>
   <si>
     <t>Al cancelar la reserva debe habilitarse la opción de reserva que estaba deshabilitada</t>
+  </si>
+  <si>
+    <t>Ingresar todos los datos en los campos solicitados</t>
+  </si>
+  <si>
+    <t>Presionar el botón "registrarse"</t>
+  </si>
+  <si>
+    <t>En caso de que todos los campos sean validos se ingresará el usuario y recibirá automaticamente el rol de "vecino" y el estado de usuario "activo"</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen validación de datos, por lo que si el Rut, Correo o Telefono ingresado ya existe en la base de datos no podrá sobreescribirse, enviando una alerta al usuario que se está registrando. </t>
+  </si>
+  <si>
+    <t>Ingresar los datos de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Correo y contraseña del usuario</t>
+  </si>
+  <si>
+    <t>En caso de que las credenciales sean válidas el usuario podrá iniciar sesión y será enviado a la página de inicio</t>
+  </si>
+  <si>
+    <t>Falta implementar las diferentes vistas que tienen los usuarios en base al rol (privilegios)</t>
+  </si>
+  <si>
+    <t>Ingresar los datos de inicio de sesión erróneos</t>
+  </si>
+  <si>
+    <t>Correo y contraseña del usuario no válidos</t>
+  </si>
+  <si>
+    <t>Si las credenciales no son válidas, se muestra una alerta de que el correo o la contraseña no son correctas</t>
+  </si>
+  <si>
+    <t>Seleccionar el rol del usuario para actualizar</t>
+  </si>
+  <si>
+    <t>El dropdown muestra los diferentes roles que existen</t>
+  </si>
+  <si>
+    <t>Dar click en el botón "actualizar"</t>
+  </si>
+  <si>
+    <t>El rol seleccionado será el nuevo rol del usuario</t>
+  </si>
+  <si>
+    <t>Se pueden implementar reglas de negocio para que no existan múltiples personas con el mismo rol, por ejemplo, con el rol de "presidente"</t>
+  </si>
+  <si>
+    <t>Seleccionar el estado del usuario para actualizar</t>
+  </si>
+  <si>
+    <t>El dropdown muestra los diferentes estados de usuario que existen (activo, inactivo y suspendido)</t>
+  </si>
+  <si>
+    <t>El estado seleccionado será el nuevo estado de usuario</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1471,8 @@
     <xf borderId="61" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="60" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="61" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="62" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="60" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1479,6 +1557,9 @@
     <xf borderId="76" fillId="4" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="76" fillId="4" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="76" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="74" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -30316,9 +30397,15 @@
         <v>46</v>
       </c>
       <c r="C17" s="84"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="88"/>
       <c r="H17" s="67"/>
       <c r="I17" s="1"/>
@@ -30343,12 +30430,18 @@
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="83" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" s="84"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="G18" s="88"/>
       <c r="H18" s="67"/>
       <c r="I18" s="1"/>
@@ -30373,12 +30466,18 @@
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="83" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="84"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="87"/>
+      <c r="D19" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="88"/>
       <c r="H19" s="67"/>
       <c r="I19" s="1"/>
@@ -30403,11 +30502,11 @@
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="83" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="84"/>
       <c r="D20" s="85"/>
-      <c r="E20" s="93"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="87"/>
       <c r="G20" s="88"/>
       <c r="H20" s="67"/>
@@ -30433,11 +30532,11 @@
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="83" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="85"/>
-      <c r="E21" s="93"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="87"/>
       <c r="G21" s="88"/>
       <c r="H21" s="67"/>
@@ -30463,11 +30562,11 @@
     <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="83" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C22" s="84"/>
       <c r="D22" s="85"/>
-      <c r="E22" s="93"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="87"/>
       <c r="G22" s="88"/>
       <c r="H22" s="67"/>
@@ -30492,12 +30591,12 @@
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="67"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -30520,12 +30619,12 @@
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="67"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -30548,12 +30647,12 @@
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -30579,11 +30678,11 @@
       <c r="B26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -30606,23 +30705,23 @@
     </row>
     <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="102" t="s">
-        <v>52</v>
+      <c r="B27" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C27" s="103" t="s">
-        <v>53</v>
+      <c r="C27" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D27" s="103" t="s">
-        <v>54</v>
+      <c r="D27" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>55</v>
+      <c r="E27" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F27" s="104" t="s">
-        <v>56</v>
+      <c r="F27" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G27" s="105" t="s">
-        <v>57</v>
+      <c r="G27" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -30646,20 +30745,20 @@
     </row>
     <row r="28" ht="34.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="106">
+      <c r="B28" s="105">
         <v>1.0</v>
       </c>
-      <c r="C28" s="107" t="s">
-        <v>58</v>
+      <c r="C28" s="106" t="s">
+        <v>65</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109" t="s">
-        <v>59</v>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108" t="s">
+        <v>66</v>
       </c>
-      <c r="F28" s="110" t="s">
-        <v>60</v>
+      <c r="F28" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G28" s="111"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="67"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -30682,21 +30781,21 @@
     </row>
     <row r="29" ht="34.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="106">
+      <c r="B29" s="105">
         <v>2.0</v>
       </c>
-      <c r="C29" s="107" t="s">
-        <v>61</v>
+      <c r="C29" s="106" t="s">
+        <v>68</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109" t="s">
-        <v>62</v>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108" t="s">
+        <v>69</v>
       </c>
-      <c r="F29" s="110" t="s">
-        <v>60</v>
+      <c r="F29" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G29" s="110" t="s">
-        <v>63</v>
+      <c r="G29" s="109" t="s">
+        <v>70</v>
       </c>
       <c r="H29" s="67"/>
       <c r="I29" s="1"/>
@@ -30720,18 +30819,18 @@
     </row>
     <row r="30" ht="34.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="106">
+      <c r="B30" s="105">
         <v>3.0</v>
       </c>
-      <c r="C30" s="112" t="s">
-        <v>64</v>
+      <c r="C30" s="111" t="s">
+        <v>71</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="113" t="s">
-        <v>65</v>
+      <c r="D30" s="107"/>
+      <c r="E30" s="112" t="s">
+        <v>72</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="67"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -30754,14 +30853,14 @@
     </row>
     <row r="31" ht="34.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="106">
+      <c r="B31" s="105">
         <v>4.0</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="67"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -30784,14 +30883,14 @@
     </row>
     <row r="32" ht="34.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="106">
+      <c r="B32" s="105">
         <v>5.0</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
       <c r="H32" s="67"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -30814,14 +30913,14 @@
     </row>
     <row r="33" ht="34.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="114">
+      <c r="B33" s="113">
         <v>6.0</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
       <c r="H33" s="67"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -30844,12 +30943,12 @@
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -30872,14 +30971,14 @@
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -30902,23 +31001,23 @@
     </row>
     <row r="36" ht="18.0" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="102" t="s">
-        <v>52</v>
+      <c r="B36" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C36" s="103" t="s">
-        <v>53</v>
+      <c r="C36" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D36" s="103" t="s">
-        <v>54</v>
+      <c r="D36" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E36" s="103" t="s">
-        <v>55</v>
+      <c r="E36" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F36" s="104" t="s">
-        <v>56</v>
+      <c r="F36" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G36" s="105" t="s">
-        <v>57</v>
+      <c r="G36" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -30942,20 +31041,20 @@
     </row>
     <row r="37" ht="34.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="106">
+      <c r="B37" s="105">
         <v>1.0</v>
       </c>
-      <c r="C37" s="107" t="s">
-        <v>58</v>
+      <c r="C37" s="106" t="s">
+        <v>65</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="109" t="s">
-        <v>59</v>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108" t="s">
+        <v>66</v>
       </c>
-      <c r="F37" s="110" t="s">
-        <v>60</v>
+      <c r="F37" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G37" s="111"/>
+      <c r="G37" s="110"/>
       <c r="H37" s="67"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -30978,21 +31077,21 @@
     </row>
     <row r="38" ht="34.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="106">
+      <c r="B38" s="105">
         <v>2.0</v>
       </c>
-      <c r="C38" s="107" t="s">
-        <v>61</v>
+      <c r="C38" s="106" t="s">
+        <v>68</v>
       </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109" t="s">
-        <v>62</v>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108" t="s">
+        <v>69</v>
       </c>
-      <c r="F38" s="110" t="s">
-        <v>60</v>
+      <c r="F38" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G38" s="110" t="s">
-        <v>63</v>
+      <c r="G38" s="109" t="s">
+        <v>70</v>
       </c>
       <c r="H38" s="67"/>
       <c r="J38" s="1"/>
@@ -31015,18 +31114,18 @@
     </row>
     <row r="39" ht="34.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="106">
+      <c r="B39" s="105">
         <v>3.0</v>
       </c>
-      <c r="C39" s="112" t="s">
-        <v>64</v>
+      <c r="C39" s="111" t="s">
+        <v>71</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="113" t="s">
-        <v>65</v>
+      <c r="D39" s="107"/>
+      <c r="E39" s="112" t="s">
+        <v>72</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
       <c r="H39" s="67"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -31049,14 +31148,14 @@
     </row>
     <row r="40" ht="34.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="106">
+      <c r="B40" s="105">
         <v>4.0</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="67"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -31079,14 +31178,14 @@
     </row>
     <row r="41" ht="34.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="106">
+      <c r="B41" s="105">
         <v>5.0</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="67"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -31109,14 +31208,14 @@
     </row>
     <row r="42" ht="34.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="114">
+      <c r="B42" s="113">
         <v>6.0</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="67"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -31139,12 +31238,12 @@
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="67"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -31167,14 +31266,14 @@
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -31197,23 +31296,23 @@
     </row>
     <row r="45" ht="18.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="102" t="s">
-        <v>52</v>
+      <c r="B45" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C45" s="103" t="s">
-        <v>53</v>
+      <c r="C45" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D45" s="103" t="s">
-        <v>54</v>
+      <c r="D45" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E45" s="103" t="s">
-        <v>55</v>
+      <c r="E45" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F45" s="104" t="s">
-        <v>56</v>
+      <c r="F45" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G45" s="105" t="s">
-        <v>57</v>
+      <c r="G45" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -31237,20 +31336,20 @@
     </row>
     <row r="46" ht="34.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="106">
+      <c r="B46" s="105">
         <v>1.0</v>
       </c>
-      <c r="C46" s="107" t="s">
-        <v>58</v>
+      <c r="C46" s="106" t="s">
+        <v>65</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="109" t="s">
-        <v>59</v>
+      <c r="D46" s="107"/>
+      <c r="E46" s="108" t="s">
+        <v>66</v>
       </c>
-      <c r="F46" s="110" t="s">
-        <v>60</v>
+      <c r="F46" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G46" s="111"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="67"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -31273,21 +31372,21 @@
     </row>
     <row r="47" ht="34.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="106">
+      <c r="B47" s="105">
         <v>2.0</v>
       </c>
-      <c r="C47" s="107" t="s">
-        <v>61</v>
+      <c r="C47" s="106" t="s">
+        <v>68</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109" t="s">
-        <v>62</v>
+      <c r="D47" s="107"/>
+      <c r="E47" s="108" t="s">
+        <v>69</v>
       </c>
-      <c r="F47" s="110" t="s">
-        <v>60</v>
+      <c r="F47" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G47" s="110" t="s">
-        <v>63</v>
+      <c r="G47" s="109" t="s">
+        <v>70</v>
       </c>
       <c r="H47" s="67"/>
       <c r="I47" s="1"/>
@@ -31311,18 +31410,18 @@
     </row>
     <row r="48" ht="34.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="106">
+      <c r="B48" s="105">
         <v>3.0</v>
       </c>
-      <c r="C48" s="112" t="s">
-        <v>64</v>
+      <c r="C48" s="111" t="s">
+        <v>71</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="113" t="s">
-        <v>65</v>
+      <c r="D48" s="107"/>
+      <c r="E48" s="112" t="s">
+        <v>72</v>
       </c>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="67"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -31345,14 +31444,14 @@
     </row>
     <row r="49" ht="34.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="106">
+      <c r="B49" s="105">
         <v>4.0</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
       <c r="H49" s="67"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -31375,14 +31474,14 @@
     </row>
     <row r="50" ht="34.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="106">
+      <c r="B50" s="105">
         <v>5.0</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
       <c r="H50" s="67"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -31405,14 +31504,14 @@
     </row>
     <row r="51" ht="34.5" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="114">
+      <c r="B51" s="113">
         <v>6.0</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
       <c r="H51" s="67"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -31435,8 +31534,8 @@
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="124"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="1"/>
@@ -31463,14 +31562,14 @@
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -31493,23 +31592,23 @@
     </row>
     <row r="54" ht="18.0" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="102" t="s">
-        <v>52</v>
+      <c r="B54" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C54" s="103" t="s">
-        <v>53</v>
+      <c r="C54" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D54" s="103" t="s">
-        <v>54</v>
+      <c r="D54" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E54" s="103" t="s">
-        <v>55</v>
+      <c r="E54" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F54" s="104" t="s">
-        <v>56</v>
+      <c r="F54" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G54" s="105" t="s">
-        <v>57</v>
+      <c r="G54" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -31533,20 +31632,20 @@
     </row>
     <row r="55" ht="34.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="106">
+      <c r="B55" s="105">
         <v>1.0</v>
       </c>
-      <c r="C55" s="107" t="s">
-        <v>58</v>
+      <c r="C55" s="106" t="s">
+        <v>65</v>
       </c>
-      <c r="D55" s="108"/>
-      <c r="E55" s="109" t="s">
-        <v>59</v>
+      <c r="D55" s="107"/>
+      <c r="E55" s="108" t="s">
+        <v>66</v>
       </c>
-      <c r="F55" s="110" t="s">
-        <v>60</v>
+      <c r="F55" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G55" s="111"/>
+      <c r="G55" s="110"/>
       <c r="H55" s="67"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -31569,21 +31668,21 @@
     </row>
     <row r="56" ht="34.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="106">
+      <c r="B56" s="105">
         <v>2.0</v>
       </c>
-      <c r="C56" s="107" t="s">
-        <v>61</v>
+      <c r="C56" s="106" t="s">
+        <v>68</v>
       </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="109" t="s">
-        <v>62</v>
+      <c r="D56" s="107"/>
+      <c r="E56" s="108" t="s">
+        <v>69</v>
       </c>
-      <c r="F56" s="110" t="s">
-        <v>60</v>
+      <c r="F56" s="109" t="s">
+        <v>67</v>
       </c>
-      <c r="G56" s="110" t="s">
-        <v>63</v>
+      <c r="G56" s="109" t="s">
+        <v>70</v>
       </c>
       <c r="H56" s="67"/>
       <c r="I56" s="1"/>
@@ -31607,18 +31706,18 @@
     </row>
     <row r="57" ht="34.5" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="106">
+      <c r="B57" s="105">
         <v>3.0</v>
       </c>
-      <c r="C57" s="112" t="s">
-        <v>64</v>
+      <c r="C57" s="111" t="s">
+        <v>71</v>
       </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="113" t="s">
-        <v>65</v>
+      <c r="D57" s="107"/>
+      <c r="E57" s="112" t="s">
+        <v>72</v>
       </c>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
       <c r="H57" s="67"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -31641,14 +31740,14 @@
     </row>
     <row r="58" ht="34.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="106">
+      <c r="B58" s="105">
         <v>4.0</v>
       </c>
-      <c r="C58" s="119"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
       <c r="H58" s="67"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -31671,14 +31770,14 @@
     </row>
     <row r="59" ht="34.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="106">
+      <c r="B59" s="105">
         <v>5.0</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
       <c r="H59" s="67"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -31701,14 +31800,14 @@
     </row>
     <row r="60" ht="34.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="114">
+      <c r="B60" s="113">
         <v>6.0</v>
       </c>
-      <c r="C60" s="107"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
       <c r="H60" s="67"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -31731,8 +31830,8 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
       <c r="F61" s="1"/>
@@ -31759,14 +31858,14 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="118" t="s">
+      <c r="B62" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -31789,23 +31888,23 @@
     </row>
     <row r="63" ht="18.0" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="102" t="s">
-        <v>52</v>
+      <c r="B63" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C63" s="103" t="s">
-        <v>53</v>
+      <c r="C63" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D63" s="103" t="s">
-        <v>54</v>
+      <c r="D63" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E63" s="103" t="s">
-        <v>55</v>
+      <c r="E63" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F63" s="104" t="s">
-        <v>56</v>
+      <c r="F63" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G63" s="105" t="s">
-        <v>57</v>
+      <c r="G63" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -31829,14 +31928,16 @@
     </row>
     <row r="64" ht="34.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="106">
+      <c r="B64" s="105">
         <v>1.0</v>
       </c>
-      <c r="C64" s="107"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="111"/>
+      <c r="C64" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="107"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="67"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -31859,14 +31960,22 @@
     </row>
     <row r="65" ht="34.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="106">
+      <c r="B65" s="105">
         <v>2.0</v>
       </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
+      <c r="C65" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="107"/>
+      <c r="E65" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="109" t="s">
+        <v>77</v>
+      </c>
       <c r="H65" s="67"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -31889,14 +31998,14 @@
     </row>
     <row r="66" ht="34.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="106">
+      <c r="B66" s="105">
         <v>3.0</v>
       </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="67"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -31919,14 +32028,14 @@
     </row>
     <row r="67" ht="34.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="106">
+      <c r="B67" s="105">
         <v>4.0</v>
       </c>
-      <c r="C67" s="119"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
       <c r="H67" s="67"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -31949,14 +32058,14 @@
     </row>
     <row r="68" ht="34.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="106">
+      <c r="B68" s="105">
         <v>5.0</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="67"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -31979,14 +32088,14 @@
     </row>
     <row r="69" ht="34.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="114">
+      <c r="B69" s="113">
         <v>6.0</v>
       </c>
-      <c r="C69" s="107"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
       <c r="H69" s="67"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -32009,8 +32118,8 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="116"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -32037,14 +32146,14 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="118" t="s">
-        <v>47</v>
+      <c r="B71" s="117" t="s">
+        <v>50</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -32067,23 +32176,23 @@
     </row>
     <row r="72" ht="18.0" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="102" t="s">
-        <v>52</v>
+      <c r="B72" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C72" s="103" t="s">
-        <v>53</v>
+      <c r="C72" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D72" s="103" t="s">
-        <v>54</v>
+      <c r="D72" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E72" s="103" t="s">
-        <v>55</v>
+      <c r="E72" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F72" s="104" t="s">
-        <v>56</v>
+      <c r="F72" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G72" s="105" t="s">
-        <v>57</v>
+      <c r="G72" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -32107,14 +32216,24 @@
     </row>
     <row r="73" ht="34.5" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="106">
+      <c r="B73" s="105">
         <v>1.0</v>
       </c>
-      <c r="C73" s="107"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
+      <c r="C73" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="109" t="s">
+        <v>81</v>
+      </c>
       <c r="H73" s="67"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -32137,14 +32256,22 @@
     </row>
     <row r="74" ht="34.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="106">
+      <c r="B74" s="105">
         <v>2.0</v>
       </c>
-      <c r="C74" s="107"/>
-      <c r="D74" s="108"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
+      <c r="C74" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="110"/>
       <c r="H74" s="67"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -32167,14 +32294,14 @@
     </row>
     <row r="75" ht="34.5" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="106">
+      <c r="B75" s="105">
         <v>3.0</v>
       </c>
-      <c r="C75" s="107"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
       <c r="H75" s="67"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -32197,14 +32324,14 @@
     </row>
     <row r="76" ht="34.5" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="106">
+      <c r="B76" s="105">
         <v>4.0</v>
       </c>
-      <c r="C76" s="119"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
       <c r="H76" s="67"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -32227,14 +32354,14 @@
     </row>
     <row r="77" ht="34.5" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="106">
+      <c r="B77" s="105">
         <v>5.0</v>
       </c>
-      <c r="C77" s="107"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="110"/>
       <c r="H77" s="67"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -32257,14 +32384,14 @@
     </row>
     <row r="78" ht="34.5" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="114">
+      <c r="B78" s="113">
         <v>6.0</v>
       </c>
-      <c r="C78" s="107"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
       <c r="H78" s="67"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -32287,8 +32414,8 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="115"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -32315,14 +32442,14 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="118" t="s">
-        <v>48</v>
+      <c r="B80" s="117" t="s">
+        <v>53</v>
       </c>
-      <c r="C80" s="99"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -32345,23 +32472,23 @@
     </row>
     <row r="81" ht="18.0" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="102" t="s">
-        <v>52</v>
+      <c r="B81" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C81" s="103" t="s">
-        <v>53</v>
+      <c r="C81" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D81" s="103" t="s">
-        <v>54</v>
+      <c r="D81" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E81" s="103" t="s">
-        <v>55</v>
+      <c r="E81" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F81" s="104" t="s">
-        <v>56</v>
+      <c r="F81" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G81" s="105" t="s">
-        <v>57</v>
+      <c r="G81" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -32385,14 +32512,20 @@
     </row>
     <row r="82" ht="34.5" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="106">
+      <c r="B82" s="105">
         <v>1.0</v>
       </c>
-      <c r="C82" s="107"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="111"/>
+      <c r="C82" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="107"/>
+      <c r="E82" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="110"/>
       <c r="H82" s="67"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -32415,14 +32548,22 @@
     </row>
     <row r="83" ht="34.5" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="106">
+      <c r="B83" s="105">
         <v>2.0</v>
       </c>
-      <c r="C83" s="107"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="111"/>
-      <c r="G83" s="111"/>
+      <c r="C83" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="107"/>
+      <c r="E83" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="109" t="s">
+        <v>89</v>
+      </c>
       <c r="H83" s="67"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -32445,14 +32586,20 @@
     </row>
     <row r="84" ht="34.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="106">
+      <c r="B84" s="105">
         <v>3.0</v>
       </c>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="111"/>
-      <c r="G84" s="111"/>
+      <c r="C84" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="107"/>
+      <c r="E84" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="110"/>
       <c r="H84" s="67"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -32475,14 +32622,20 @@
     </row>
     <row r="85" ht="34.5" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="106">
+      <c r="B85" s="105">
         <v>4.0</v>
       </c>
-      <c r="C85" s="119"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="109"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="111"/>
+      <c r="C85" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="107"/>
+      <c r="E85" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="110"/>
       <c r="H85" s="67"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -32505,14 +32658,14 @@
     </row>
     <row r="86" ht="34.5" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="106">
+      <c r="B86" s="105">
         <v>5.0</v>
       </c>
-      <c r="C86" s="107"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="111"/>
-      <c r="G86" s="111"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
       <c r="H86" s="67"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -32535,14 +32688,14 @@
     </row>
     <row r="87" ht="34.5" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="114">
+      <c r="B87" s="113">
         <v>6.0</v>
       </c>
-      <c r="C87" s="107"/>
-      <c r="D87" s="115"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="111"/>
-      <c r="G87" s="111"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
       <c r="H87" s="67"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -32565,8 +32718,8 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="115"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -32593,14 +32746,14 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="118" t="s">
-        <v>49</v>
+      <c r="B89" s="117" t="s">
+        <v>56</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -32623,23 +32776,23 @@
     </row>
     <row r="90" ht="18.0" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="102" t="s">
-        <v>52</v>
+      <c r="B90" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C90" s="103" t="s">
-        <v>53</v>
+      <c r="C90" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D90" s="103" t="s">
-        <v>54</v>
+      <c r="D90" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E90" s="103" t="s">
-        <v>55</v>
+      <c r="E90" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F90" s="104" t="s">
-        <v>56</v>
+      <c r="F90" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G90" s="105" t="s">
-        <v>57</v>
+      <c r="G90" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -32663,14 +32816,14 @@
     </row>
     <row r="91" ht="34.5" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="106">
+      <c r="B91" s="105">
         <v>1.0</v>
       </c>
-      <c r="C91" s="107"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
       <c r="H91" s="67"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -32693,14 +32846,14 @@
     </row>
     <row r="92" ht="34.5" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="106">
+      <c r="B92" s="105">
         <v>2.0</v>
       </c>
-      <c r="C92" s="107"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="111"/>
-      <c r="G92" s="111"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
       <c r="H92" s="67"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -32723,14 +32876,14 @@
     </row>
     <row r="93" ht="34.5" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="106">
+      <c r="B93" s="105">
         <v>3.0</v>
       </c>
-      <c r="C93" s="107"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
       <c r="H93" s="67"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -32753,14 +32906,14 @@
     </row>
     <row r="94" ht="34.5" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="106">
+      <c r="B94" s="105">
         <v>4.0</v>
       </c>
-      <c r="C94" s="119"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="111"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
       <c r="H94" s="67"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -32783,14 +32936,14 @@
     </row>
     <row r="95" ht="34.5" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="106">
+      <c r="B95" s="105">
         <v>5.0</v>
       </c>
-      <c r="C95" s="107"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="111"/>
-      <c r="G95" s="111"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
       <c r="H95" s="67"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -32813,14 +32966,14 @@
     </row>
     <row r="96" ht="34.5" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="114">
+      <c r="B96" s="113">
         <v>6.0</v>
       </c>
-      <c r="C96" s="107"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="108"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="67"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -32843,8 +32996,8 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="115"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -32871,14 +33024,14 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="118" t="s">
-        <v>50</v>
+      <c r="B98" s="117" t="s">
+        <v>57</v>
       </c>
-      <c r="C98" s="99"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="100"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -32901,23 +33054,23 @@
     </row>
     <row r="99" ht="18.0" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="102" t="s">
-        <v>52</v>
+      <c r="B99" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C99" s="103" t="s">
-        <v>53</v>
+      <c r="C99" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D99" s="103" t="s">
-        <v>54</v>
+      <c r="D99" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E99" s="103" t="s">
-        <v>55</v>
+      <c r="E99" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F99" s="104" t="s">
-        <v>56</v>
+      <c r="F99" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G99" s="105" t="s">
-        <v>57</v>
+      <c r="G99" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -32941,14 +33094,14 @@
     </row>
     <row r="100" ht="34.5" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="106">
+      <c r="B100" s="105">
         <v>1.0</v>
       </c>
-      <c r="C100" s="107"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110"/>
       <c r="H100" s="67"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -32971,14 +33124,14 @@
     </row>
     <row r="101" ht="34.5" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="106">
+      <c r="B101" s="105">
         <v>2.0</v>
       </c>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="109"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="107"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
       <c r="H101" s="67"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -33001,14 +33154,14 @@
     </row>
     <row r="102" ht="34.5" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="106">
+      <c r="B102" s="105">
         <v>3.0</v>
       </c>
-      <c r="C102" s="107"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="111"/>
-      <c r="G102" s="111"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
       <c r="H102" s="67"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -33031,14 +33184,14 @@
     </row>
     <row r="103" ht="34.5" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="106">
+      <c r="B103" s="105">
         <v>4.0</v>
       </c>
-      <c r="C103" s="119"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
       <c r="H103" s="67"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -33061,14 +33214,14 @@
     </row>
     <row r="104" ht="34.5" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="106">
+      <c r="B104" s="105">
         <v>5.0</v>
       </c>
-      <c r="C104" s="107"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="111"/>
-      <c r="G104" s="111"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
       <c r="H104" s="67"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -33091,14 +33244,14 @@
     </row>
     <row r="105" ht="34.5" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="114">
+      <c r="B105" s="113">
         <v>6.0</v>
       </c>
-      <c r="C105" s="107"/>
-      <c r="D105" s="115"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
       <c r="H105" s="67"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -33121,8 +33274,8 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="116"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="115"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -33149,14 +33302,14 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="118" t="s">
-        <v>51</v>
+      <c r="B107" s="117" t="s">
+        <v>58</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="100"/>
+      <c r="F107" s="100"/>
+      <c r="G107" s="100"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -33179,23 +33332,23 @@
     </row>
     <row r="108" ht="18.0" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="102" t="s">
-        <v>52</v>
+      <c r="B108" s="101" t="s">
+        <v>59</v>
       </c>
-      <c r="C108" s="103" t="s">
-        <v>53</v>
+      <c r="C108" s="102" t="s">
+        <v>60</v>
       </c>
-      <c r="D108" s="103" t="s">
-        <v>54</v>
+      <c r="D108" s="102" t="s">
+        <v>61</v>
       </c>
-      <c r="E108" s="103" t="s">
-        <v>55</v>
+      <c r="E108" s="102" t="s">
+        <v>62</v>
       </c>
-      <c r="F108" s="104" t="s">
-        <v>56</v>
+      <c r="F108" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="G108" s="105" t="s">
-        <v>57</v>
+      <c r="G108" s="104" t="s">
+        <v>64</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -33219,14 +33372,14 @@
     </row>
     <row r="109" ht="34.5" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="106">
+      <c r="B109" s="105">
         <v>1.0</v>
       </c>
-      <c r="C109" s="107"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="108"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="110"/>
       <c r="H109" s="67"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -33249,14 +33402,14 @@
     </row>
     <row r="110" ht="34.5" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="106">
+      <c r="B110" s="105">
         <v>2.0</v>
       </c>
-      <c r="C110" s="107"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="107"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="110"/>
       <c r="H110" s="67"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -33279,14 +33432,14 @@
     </row>
     <row r="111" ht="34.5" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="106">
+      <c r="B111" s="105">
         <v>3.0</v>
       </c>
-      <c r="C111" s="107"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="110"/>
+      <c r="G111" s="110"/>
       <c r="H111" s="67"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -33309,14 +33462,14 @@
     </row>
     <row r="112" ht="34.5" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="106">
+      <c r="B112" s="105">
         <v>4.0</v>
       </c>
-      <c r="C112" s="119"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="110"/>
+      <c r="G112" s="110"/>
       <c r="H112" s="67"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -33339,14 +33492,14 @@
     </row>
     <row r="113" ht="34.5" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="106">
+      <c r="B113" s="105">
         <v>5.0</v>
       </c>
-      <c r="C113" s="107"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="111"/>
-      <c r="G113" s="111"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="110"/>
       <c r="H113" s="67"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -33369,14 +33522,14 @@
     </row>
     <row r="114" ht="34.5" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="114">
+      <c r="B114" s="113">
         <v>6.0</v>
       </c>
-      <c r="C114" s="107"/>
-      <c r="D114" s="115"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="111"/>
-      <c r="G114" s="111"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="114"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
       <c r="H114" s="67"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -58227,9 +58380,9 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B80:C80"/>

--- a/Fase_1/Evidencias_Grupales/Plantilla Casos de prueba Integracion.xlsx
+++ b/Fase_1/Evidencias_Grupales/Plantilla Casos de prueba Integracion.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="121">
   <si>
     <t>UnidadTerritorial</t>
   </si>
@@ -49,16 +49,19 @@
     <t>Versión / Edición</t>
   </si>
   <si>
-    <t>0100</t>
+    <t>0104</t>
   </si>
   <si>
     <t>Fecha Versión</t>
   </si>
   <si>
-    <t>DD/MM/AAAA</t>
+    <t>21/10/2024</t>
   </si>
   <si>
     <t>Aprobado Por</t>
+  </si>
+  <si>
+    <t>Fabian Cortés</t>
   </si>
   <si>
     <t>Fecha Aprobación</t>
@@ -67,7 +70,7 @@
     <t>Nº Total de Páginas</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>REGISTRO DE CAMBIOS</t>
@@ -88,10 +91,58 @@
     <t>Fecha del cambio</t>
   </si>
   <si>
+    <t>0100</t>
+  </si>
+  <si>
     <t>Versión Inicial</t>
   </si>
   <si>
-    <t>&lt;Nombre Apellido1 Apellido2&gt;</t>
+    <t>&lt;Kevin Olguin, Fabian Cortés, Jesus Salvo&gt;</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Codificacion pagina web</t>
+  </si>
+  <si>
+    <t>&lt;Fabian Cortés, Kevin Olguin&gt;</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>Implementacion de login</t>
+  </si>
+  <si>
+    <t>&lt;Kevin Olguin, Jesus Salvo&gt;</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>generacion de certificado de residencia</t>
+  </si>
+  <si>
+    <t>&lt;Fabian Cortés&gt;</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>pruebas de gestion de reservas, autentificacion de privilegios de usuarios y gestion de usuarios</t>
+  </si>
+  <si>
+    <t>&lt;Fabián Cortés&gt;</t>
   </si>
   <si>
     <t>CONTROL DE DISTRIBUCIÓN</t>
@@ -215,6 +266,15 @@
     <t>CA008</t>
   </si>
   <si>
+    <t>Sistema de verificación de roles de usuario</t>
+  </si>
+  <si>
+    <t>Se probará el sistema de verificación del rol del usuario</t>
+  </si>
+  <si>
+    <t>Datos de usuario registrado, conexión a base de datos, un rol asignado a cada usuario</t>
+  </si>
+  <si>
     <t>CA009</t>
   </si>
   <si>
@@ -254,13 +314,16 @@
     <t>En caso de que el usuario no haya iniciado sesión la página lo redirige al apartado de iniciar sesión, si el usuario ha iniciado sesión, el sistema ingresará los datos de la reserva a la base de datos cambiando el estado del horario a "reservado" y dejando inhabilitado el poder sobreescribir la reserva.</t>
   </si>
   <si>
-    <t>Falta implementar la verificación del usuario, pero el registro de reserva está funcionando</t>
+    <t>Implementación de verificación de usuario implementada.</t>
   </si>
   <si>
     <t>Cancelar reserva</t>
   </si>
   <si>
     <t>Al cancelar la reserva debe habilitarse la opción de reserva que estaba deshabilitada</t>
+  </si>
+  <si>
+    <t>La opción cancelada puede volver a ser seleccionada. Falta implementar reglas de negocio (por ejemplo que solo sea cancelable hasta un período de tiempo antes del horario de la reserva)</t>
   </si>
   <si>
     <t>Ingresar todos los datos en los campos solicitados</t>
@@ -275,7 +338,7 @@
     <t>ok</t>
   </si>
   <si>
-    <t xml:space="preserve">Existen validación de datos, por lo que si el Rut, Correo o Telefono ingresado ya existe en la base de datos no podrá sobreescribirse, enviando una alerta al usuario que se está registrando. </t>
+    <t>Existen validación de datos, por lo que si el Rut, Correo o Telefono ingresado ya existe en la base de datos no podrá sobreescribirse, enviando una alerta al usuario que se está registrando. También verifica si el usuario es mayor de 14 años al momento de registrarse</t>
   </si>
   <si>
     <t>Ingresar los datos de inicio de sesión</t>
@@ -287,7 +350,7 @@
     <t>En caso de que las credenciales sean válidas el usuario podrá iniciar sesión y será enviado a la página de inicio</t>
   </si>
   <si>
-    <t>Falta implementar las diferentes vistas que tienen los usuarios en base al rol (privilegios)</t>
+    <t>Según el rol de usuario que tenga será redireccionado a las distintas páginas de inicio</t>
   </si>
   <si>
     <t>Ingresar los datos de inicio de sesión erróneos</t>
@@ -321,6 +384,27 @@
   </si>
   <si>
     <t>El estado seleccionado será el nuevo estado de usuario</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con un usuario de rol "vecino"</t>
+  </si>
+  <si>
+    <t>Solo puede acceder a las páginas: Perfil, reserva, noticias y solicitud de certificados</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con un usuario de rol "directiva"</t>
+  </si>
+  <si>
+    <t>Solo puede acceder a las páginas: Perfil, gestion de reserva, gestion de noticias, gestión de proyectos y gestion de solicitudes de certificados</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con un usuario de rol "tesorero"</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con un usuario de rol "secretario"</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con un usuario de rol "presidente"</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1326,21 +1410,20 @@
     <xf borderId="16" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1350,8 +1433,8 @@
     <xf borderId="17" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1374,12 +1457,25 @@
     <xf borderId="27" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="28" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="30" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1387,22 +1483,32 @@
     <xf borderId="32" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="35" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="39" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1473,6 +1579,9 @@
     </xf>
     <xf borderId="62" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="60" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -2217,12 +2326,14 @@
       <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1"/>
@@ -2248,14 +2359,14 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="s">
-        <v>15</v>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
+        <v>16</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>16</v>
+      <c r="F16" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2308,8 +2419,8 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="33" t="s">
-        <v>17</v>
+      <c r="B18" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2322,8 +2433,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="34" t="s">
-        <v>18</v>
+      <c r="P18" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2364,18 +2475,18 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>22</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2400,18 +2511,18 @@
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44" t="s">
-        <v>12</v>
+      <c r="C21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2436,11 +2547,19 @@
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="27"/>
+      <c r="B22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2464,11 +2583,19 @@
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2490,13 +2617,21 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" ht="36.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2520,11 +2655,19 @@
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2548,11 +2691,11 @@
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="27"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2576,11 +2719,11 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="27"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2604,11 +2747,11 @@
     </row>
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2632,11 +2775,11 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="32"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2686,8 +2829,8 @@
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="33" t="s">
-        <v>25</v>
+      <c r="B31" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2744,13 +2887,13 @@
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="53" t="s">
-        <v>26</v>
+      <c r="B33" s="58" t="s">
+        <v>43</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2774,7 +2917,7 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2802,7 +2945,7 @@
     </row>
     <row r="35" ht="25.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -2811,7 +2954,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2832,7 +2975,7 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -2860,12 +3003,12 @@
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="25"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="57"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2888,11 +3031,11 @@
     </row>
     <row r="38" ht="25.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2915,9 +3058,9 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="57"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2943,12 +3086,12 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2971,11 +3114,11 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
-      <c r="B41" s="59"/>
-      <c r="D41" s="57"/>
-      <c r="F41" s="57"/>
+      <c r="B41" s="65"/>
+      <c r="D41" s="63"/>
+      <c r="F41" s="63"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="61"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2995,19 +3138,19 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3023,18 +3166,18 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="A43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3050,17 +3193,17 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3076,19 +3219,19 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="62"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3104,9 +3247,9 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="57"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3114,8 +3257,8 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3133,17 +3276,17 @@
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3161,17 +3304,17 @@
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3189,17 +3332,17 @@
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3217,17 +3360,17 @@
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="65"/>
+      <c r="F50" s="71"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3245,17 +3388,17 @@
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="57"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3273,17 +3416,17 @@
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="60"/>
+      <c r="F52" s="66"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3301,17 +3444,17 @@
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3329,17 +3472,17 @@
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3357,17 +3500,17 @@
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="57"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -3385,17 +3528,17 @@
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="57"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3413,17 +3556,17 @@
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="57"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3441,17 +3584,17 @@
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3469,9 +3612,9 @@
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3497,9 +3640,9 @@
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3525,9 +3668,9 @@
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3553,9 +3696,9 @@
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3581,9 +3724,9 @@
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3609,9 +3752,9 @@
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3637,9 +3780,9 @@
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3665,9 +3808,9 @@
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3693,9 +3836,9 @@
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3721,9 +3864,9 @@
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3749,9 +3892,9 @@
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3777,9 +3920,9 @@
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3805,9 +3948,9 @@
     </row>
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3833,15 +3976,15 @@
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="73"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3861,15 +4004,15 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="73"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3889,9 +4032,9 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3917,9 +4060,9 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3945,9 +4088,9 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3973,9 +4116,9 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -4001,9 +4144,9 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4029,9 +4172,9 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4057,9 +4200,9 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4086,8 +4229,8 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="57"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -29971,11 +30114,11 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -30105,14 +30248,14 @@
     </row>
     <row r="8" ht="111.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="69" t="s">
-        <v>28</v>
+      <c r="B8" s="75" t="s">
+        <v>45</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -30135,8 +30278,8 @@
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="78"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -30157,12 +30300,12 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -30213,20 +30356,20 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="77" t="s">
-        <v>29</v>
+      <c r="B12" s="83" t="s">
+        <v>46</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79" t="s">
-        <v>30</v>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85" t="s">
+        <v>47</v>
       </c>
-      <c r="E12" s="80" t="s">
-        <v>31</v>
+      <c r="E12" s="86" t="s">
+        <v>48</v>
       </c>
-      <c r="F12" s="81" t="s">
-        <v>32</v>
+      <c r="F12" s="87" t="s">
+        <v>49</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -30249,21 +30392,21 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="83" t="s">
-        <v>33</v>
+      <c r="B13" s="89" t="s">
+        <v>50</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85" t="s">
-        <v>34</v>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91" t="s">
+        <v>51</v>
       </c>
-      <c r="E13" s="86" t="s">
-        <v>35</v>
+      <c r="E13" s="92" t="s">
+        <v>52</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>36</v>
+      <c r="F13" s="93" t="s">
+        <v>53</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -30285,21 +30428,21 @@
     </row>
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="83" t="s">
-        <v>37</v>
+      <c r="B14" s="89" t="s">
+        <v>54</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="89" t="s">
-        <v>38</v>
+      <c r="C14" s="90"/>
+      <c r="D14" s="95" t="s">
+        <v>55</v>
       </c>
-      <c r="E14" s="90" t="s">
-        <v>39</v>
+      <c r="E14" s="96" t="s">
+        <v>56</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>36</v>
+      <c r="F14" s="93" t="s">
+        <v>53</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -30321,21 +30464,21 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="83" t="s">
-        <v>40</v>
+      <c r="B15" s="89" t="s">
+        <v>57</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="89" t="s">
-        <v>41</v>
+      <c r="C15" s="90"/>
+      <c r="D15" s="95" t="s">
+        <v>58</v>
       </c>
-      <c r="E15" s="90" t="s">
-        <v>42</v>
+      <c r="E15" s="96" t="s">
+        <v>59</v>
       </c>
-      <c r="F15" s="87" t="s">
-        <v>36</v>
+      <c r="F15" s="93" t="s">
+        <v>53</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -30357,21 +30500,21 @@
     </row>
     <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
-        <v>43</v>
+      <c r="B16" s="89" t="s">
+        <v>60</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
-        <v>44</v>
+      <c r="C16" s="90"/>
+      <c r="D16" s="95" t="s">
+        <v>61</v>
       </c>
-      <c r="E16" s="90" t="s">
-        <v>45</v>
+      <c r="E16" s="96" t="s">
+        <v>62</v>
       </c>
-      <c r="F16" s="87" t="s">
-        <v>36</v>
+      <c r="F16" s="93" t="s">
+        <v>53</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="67"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -30393,21 +30536,21 @@
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="83" t="s">
-        <v>46</v>
+      <c r="B17" s="89" t="s">
+        <v>63</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="89" t="s">
-        <v>47</v>
+      <c r="C17" s="90"/>
+      <c r="D17" s="95" t="s">
+        <v>64</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>48</v>
+      <c r="E17" s="96" t="s">
+        <v>65</v>
       </c>
-      <c r="F17" s="91" t="s">
-        <v>49</v>
+      <c r="F17" s="97" t="s">
+        <v>66</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="67"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -30429,21 +30572,21 @@
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="83" t="s">
-        <v>50</v>
+      <c r="B18" s="89" t="s">
+        <v>67</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="89" t="s">
-        <v>51</v>
+      <c r="C18" s="90"/>
+      <c r="D18" s="95" t="s">
+        <v>68</v>
       </c>
-      <c r="E18" s="90" t="s">
-        <v>52</v>
+      <c r="E18" s="96" t="s">
+        <v>69</v>
       </c>
-      <c r="F18" s="91" t="s">
-        <v>49</v>
+      <c r="F18" s="97" t="s">
+        <v>66</v>
       </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="67"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -30465,21 +30608,21 @@
     </row>
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="83" t="s">
-        <v>53</v>
+      <c r="B19" s="89" t="s">
+        <v>70</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="89" t="s">
-        <v>54</v>
+      <c r="C19" s="90"/>
+      <c r="D19" s="95" t="s">
+        <v>71</v>
       </c>
-      <c r="E19" s="90" t="s">
-        <v>55</v>
+      <c r="E19" s="96" t="s">
+        <v>72</v>
       </c>
-      <c r="F19" s="91" t="s">
-        <v>49</v>
+      <c r="F19" s="97" t="s">
+        <v>66</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="67"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -30501,15 +30644,21 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="83" t="s">
-        <v>56</v>
+      <c r="B20" s="89" t="s">
+        <v>73</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="67"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="94"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -30531,15 +30680,15 @@
     </row>
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="83" t="s">
-        <v>57</v>
+      <c r="B21" s="89" t="s">
+        <v>77</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -30561,15 +30710,15 @@
     </row>
     <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="83" t="s">
-        <v>58</v>
+      <c r="B22" s="89" t="s">
+        <v>78</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="67"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -30591,13 +30740,13 @@
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="67"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="73"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -30619,13 +30768,13 @@
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="73"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -30647,12 +30796,12 @@
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -30675,14 +30824,14 @@
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="77" t="s">
-        <v>33</v>
+      <c r="B26" s="83" t="s">
+        <v>50</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -30705,23 +30854,23 @@
     </row>
     <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="101" t="s">
-        <v>59</v>
+      <c r="B27" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>60</v>
+      <c r="C27" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D27" s="102" t="s">
-        <v>61</v>
+      <c r="D27" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>62</v>
+      <c r="E27" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F27" s="103" t="s">
-        <v>63</v>
+      <c r="F27" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G27" s="104" t="s">
-        <v>64</v>
+      <c r="G27" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -30745,21 +30894,21 @@
     </row>
     <row r="28" ht="34.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="105">
+      <c r="B28" s="112">
         <v>1.0</v>
       </c>
-      <c r="C28" s="106" t="s">
-        <v>65</v>
+      <c r="C28" s="113" t="s">
+        <v>85</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108" t="s">
-        <v>66</v>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115" t="s">
+        <v>86</v>
       </c>
-      <c r="F28" s="109" t="s">
-        <v>67</v>
+      <c r="F28" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="67"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -30781,23 +30930,23 @@
     </row>
     <row r="29" ht="34.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="105">
+      <c r="B29" s="112">
         <v>2.0</v>
       </c>
-      <c r="C29" s="106" t="s">
-        <v>68</v>
+      <c r="C29" s="113" t="s">
+        <v>88</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108" t="s">
-        <v>69</v>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115" t="s">
+        <v>89</v>
       </c>
-      <c r="F29" s="109" t="s">
-        <v>67</v>
+      <c r="F29" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G29" s="109" t="s">
-        <v>70</v>
+      <c r="G29" s="116" t="s">
+        <v>90</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -30819,19 +30968,23 @@
     </row>
     <row r="30" ht="34.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="105">
+      <c r="B30" s="112">
         <v>3.0</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>71</v>
+      <c r="C30" s="118" t="s">
+        <v>91</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="112" t="s">
-        <v>72</v>
+      <c r="D30" s="114"/>
+      <c r="E30" s="119" t="s">
+        <v>92</v>
       </c>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="67"/>
+      <c r="F30" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="73"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -30853,15 +31006,15 @@
     </row>
     <row r="31" ht="34.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="105">
+      <c r="B31" s="112">
         <v>4.0</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="67"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="73"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -30883,15 +31036,15 @@
     </row>
     <row r="32" ht="34.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="105">
+      <c r="B32" s="112">
         <v>5.0</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="67"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="73"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -30913,15 +31066,15 @@
     </row>
     <row r="33" ht="34.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="113">
+      <c r="B33" s="120">
         <v>6.0</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="67"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="73"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -30943,12 +31096,12 @@
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -30971,14 +31124,14 @@
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="117" t="s">
-        <v>37</v>
+      <c r="B35" s="124" t="s">
+        <v>54</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -31001,23 +31154,23 @@
     </row>
     <row r="36" ht="18.0" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="101" t="s">
-        <v>59</v>
+      <c r="B36" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C36" s="102" t="s">
-        <v>60</v>
+      <c r="C36" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D36" s="102" t="s">
-        <v>61</v>
+      <c r="D36" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E36" s="102" t="s">
-        <v>62</v>
+      <c r="E36" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F36" s="103" t="s">
-        <v>63</v>
+      <c r="F36" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G36" s="104" t="s">
-        <v>64</v>
+      <c r="G36" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -31041,21 +31194,21 @@
     </row>
     <row r="37" ht="34.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="105">
+      <c r="B37" s="112">
         <v>1.0</v>
       </c>
-      <c r="C37" s="106" t="s">
-        <v>65</v>
+      <c r="C37" s="113" t="s">
+        <v>85</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108" t="s">
-        <v>66</v>
+      <c r="D37" s="114"/>
+      <c r="E37" s="115" t="s">
+        <v>86</v>
       </c>
-      <c r="F37" s="109" t="s">
-        <v>67</v>
+      <c r="F37" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G37" s="110"/>
-      <c r="H37" s="67"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="73"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -31077,23 +31230,23 @@
     </row>
     <row r="38" ht="34.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="105">
+      <c r="B38" s="112">
         <v>2.0</v>
       </c>
-      <c r="C38" s="106" t="s">
-        <v>68</v>
+      <c r="C38" s="113" t="s">
+        <v>88</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108" t="s">
-        <v>69</v>
+      <c r="D38" s="114"/>
+      <c r="E38" s="115" t="s">
+        <v>89</v>
       </c>
-      <c r="F38" s="109" t="s">
-        <v>67</v>
+      <c r="F38" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G38" s="109" t="s">
-        <v>70</v>
+      <c r="G38" s="116" t="s">
+        <v>90</v>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="73"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -31114,19 +31267,23 @@
     </row>
     <row r="39" ht="34.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="105">
+      <c r="B39" s="112">
         <v>3.0</v>
       </c>
-      <c r="C39" s="111" t="s">
-        <v>71</v>
+      <c r="C39" s="118" t="s">
+        <v>91</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="112" t="s">
-        <v>72</v>
+      <c r="D39" s="114"/>
+      <c r="E39" s="119" t="s">
+        <v>92</v>
       </c>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="67"/>
+      <c r="F39" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="73"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -31148,15 +31305,15 @@
     </row>
     <row r="40" ht="34.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="105">
+      <c r="B40" s="112">
         <v>4.0</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="67"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="73"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -31178,15 +31335,15 @@
     </row>
     <row r="41" ht="34.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="105">
+      <c r="B41" s="112">
         <v>5.0</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="67"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="73"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -31208,15 +31365,15 @@
     </row>
     <row r="42" ht="34.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="113">
+      <c r="B42" s="120">
         <v>6.0</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="67"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="73"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -31238,13 +31395,13 @@
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="67"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="73"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -31266,14 +31423,14 @@
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="117" t="s">
-        <v>40</v>
+      <c r="B44" s="124" t="s">
+        <v>57</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -31296,23 +31453,23 @@
     </row>
     <row r="45" ht="18.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="101" t="s">
-        <v>59</v>
+      <c r="B45" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C45" s="102" t="s">
-        <v>60</v>
+      <c r="C45" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D45" s="102" t="s">
-        <v>61</v>
+      <c r="D45" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E45" s="102" t="s">
-        <v>62</v>
+      <c r="E45" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F45" s="103" t="s">
-        <v>63</v>
+      <c r="F45" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G45" s="104" t="s">
-        <v>64</v>
+      <c r="G45" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -31336,21 +31493,21 @@
     </row>
     <row r="46" ht="34.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="105">
+      <c r="B46" s="112">
         <v>1.0</v>
       </c>
-      <c r="C46" s="106" t="s">
-        <v>65</v>
+      <c r="C46" s="113" t="s">
+        <v>85</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108" t="s">
-        <v>66</v>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115" t="s">
+        <v>86</v>
       </c>
-      <c r="F46" s="109" t="s">
-        <v>67</v>
+      <c r="F46" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G46" s="110"/>
-      <c r="H46" s="67"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="73"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -31372,23 +31529,23 @@
     </row>
     <row r="47" ht="34.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="105">
+      <c r="B47" s="112">
         <v>2.0</v>
       </c>
-      <c r="C47" s="106" t="s">
-        <v>68</v>
+      <c r="C47" s="113" t="s">
+        <v>88</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="108" t="s">
-        <v>69</v>
+      <c r="D47" s="114"/>
+      <c r="E47" s="115" t="s">
+        <v>89</v>
       </c>
-      <c r="F47" s="109" t="s">
-        <v>67</v>
+      <c r="F47" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G47" s="109" t="s">
-        <v>70</v>
+      <c r="G47" s="116" t="s">
+        <v>90</v>
       </c>
-      <c r="H47" s="67"/>
+      <c r="H47" s="73"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -31410,19 +31567,23 @@
     </row>
     <row r="48" ht="34.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="105">
+      <c r="B48" s="112">
         <v>3.0</v>
       </c>
-      <c r="C48" s="111" t="s">
-        <v>71</v>
+      <c r="C48" s="118" t="s">
+        <v>91</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="112" t="s">
-        <v>72</v>
+      <c r="D48" s="114"/>
+      <c r="E48" s="119" t="s">
+        <v>92</v>
       </c>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="67"/>
+      <c r="F48" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="73"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -31444,15 +31605,15 @@
     </row>
     <row r="49" ht="34.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="105">
+      <c r="B49" s="112">
         <v>4.0</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="67"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="73"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -31474,15 +31635,15 @@
     </row>
     <row r="50" ht="34.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="105">
+      <c r="B50" s="112">
         <v>5.0</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="67"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="73"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -31504,15 +31665,15 @@
     </row>
     <row r="51" ht="34.5" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="113">
+      <c r="B51" s="120">
         <v>6.0</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="67"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="73"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -31534,10 +31695,10 @@
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -31562,14 +31723,14 @@
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="117" t="s">
-        <v>43</v>
+      <c r="B53" s="124" t="s">
+        <v>60</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -31592,23 +31753,23 @@
     </row>
     <row r="54" ht="18.0" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="101" t="s">
-        <v>59</v>
+      <c r="B54" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C54" s="102" t="s">
-        <v>60</v>
+      <c r="C54" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D54" s="102" t="s">
-        <v>61</v>
+      <c r="D54" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E54" s="102" t="s">
-        <v>62</v>
+      <c r="E54" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F54" s="103" t="s">
-        <v>63</v>
+      <c r="F54" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G54" s="104" t="s">
-        <v>64</v>
+      <c r="G54" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -31632,21 +31793,21 @@
     </row>
     <row r="55" ht="34.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="105">
+      <c r="B55" s="112">
         <v>1.0</v>
       </c>
-      <c r="C55" s="106" t="s">
-        <v>65</v>
+      <c r="C55" s="113" t="s">
+        <v>85</v>
       </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="108" t="s">
-        <v>66</v>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115" t="s">
+        <v>86</v>
       </c>
-      <c r="F55" s="109" t="s">
-        <v>67</v>
+      <c r="F55" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G55" s="110"/>
-      <c r="H55" s="67"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="73"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -31668,23 +31829,23 @@
     </row>
     <row r="56" ht="34.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="105">
+      <c r="B56" s="112">
         <v>2.0</v>
       </c>
-      <c r="C56" s="106" t="s">
-        <v>68</v>
+      <c r="C56" s="113" t="s">
+        <v>88</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="108" t="s">
-        <v>69</v>
+      <c r="D56" s="114"/>
+      <c r="E56" s="115" t="s">
+        <v>89</v>
       </c>
-      <c r="F56" s="109" t="s">
-        <v>67</v>
+      <c r="F56" s="116" t="s">
+        <v>87</v>
       </c>
-      <c r="G56" s="109" t="s">
-        <v>70</v>
+      <c r="G56" s="116" t="s">
+        <v>90</v>
       </c>
-      <c r="H56" s="67"/>
+      <c r="H56" s="73"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -31706,19 +31867,23 @@
     </row>
     <row r="57" ht="34.5" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="105">
+      <c r="B57" s="112">
         <v>3.0</v>
       </c>
-      <c r="C57" s="111" t="s">
-        <v>71</v>
+      <c r="C57" s="118" t="s">
+        <v>91</v>
       </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="112" t="s">
-        <v>72</v>
+      <c r="D57" s="114"/>
+      <c r="E57" s="119" t="s">
+        <v>92</v>
       </c>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="67"/>
+      <c r="F57" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="73"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -31740,15 +31905,15 @@
     </row>
     <row r="58" ht="34.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="105">
+      <c r="B58" s="112">
         <v>4.0</v>
       </c>
-      <c r="C58" s="118"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="67"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="73"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -31770,15 +31935,15 @@
     </row>
     <row r="59" ht="34.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="105">
+      <c r="B59" s="112">
         <v>5.0</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="67"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="73"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -31800,15 +31965,15 @@
     </row>
     <row r="60" ht="34.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="113">
+      <c r="B60" s="120">
         <v>6.0</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="67"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="73"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -31830,10 +31995,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -31858,14 +32023,14 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="117" t="s">
-        <v>46</v>
+      <c r="B62" s="124" t="s">
+        <v>63</v>
       </c>
-      <c r="C62" s="98"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -31888,23 +32053,23 @@
     </row>
     <row r="63" ht="18.0" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="101" t="s">
-        <v>59</v>
+      <c r="B63" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C63" s="102" t="s">
-        <v>60</v>
+      <c r="C63" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D63" s="102" t="s">
-        <v>61</v>
+      <c r="D63" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E63" s="102" t="s">
-        <v>62</v>
+      <c r="E63" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F63" s="103" t="s">
-        <v>63</v>
+      <c r="F63" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G63" s="104" t="s">
-        <v>64</v>
+      <c r="G63" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -31928,17 +32093,17 @@
     </row>
     <row r="64" ht="34.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="105">
+      <c r="B64" s="112">
         <v>1.0</v>
       </c>
-      <c r="C64" s="111" t="s">
-        <v>73</v>
+      <c r="C64" s="118" t="s">
+        <v>94</v>
       </c>
-      <c r="D64" s="107"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="67"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="73"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -31960,23 +32125,23 @@
     </row>
     <row r="65" ht="34.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="105">
+      <c r="B65" s="112">
         <v>2.0</v>
       </c>
-      <c r="C65" s="111" t="s">
-        <v>74</v>
+      <c r="C65" s="118" t="s">
+        <v>95</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="112" t="s">
-        <v>75</v>
+      <c r="D65" s="114"/>
+      <c r="E65" s="119" t="s">
+        <v>96</v>
       </c>
-      <c r="F65" s="109" t="s">
-        <v>76</v>
+      <c r="F65" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G65" s="109" t="s">
-        <v>77</v>
+      <c r="G65" s="116" t="s">
+        <v>98</v>
       </c>
-      <c r="H65" s="67"/>
+      <c r="H65" s="73"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -31998,15 +32163,15 @@
     </row>
     <row r="66" ht="34.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="105">
+      <c r="B66" s="112">
         <v>3.0</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="67"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="73"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -32028,15 +32193,15 @@
     </row>
     <row r="67" ht="34.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="105">
+      <c r="B67" s="112">
         <v>4.0</v>
       </c>
-      <c r="C67" s="118"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="67"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="73"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -32058,15 +32223,15 @@
     </row>
     <row r="68" ht="34.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="105">
+      <c r="B68" s="112">
         <v>5.0</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="67"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="73"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -32088,15 +32253,15 @@
     </row>
     <row r="69" ht="34.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="113">
+      <c r="B69" s="120">
         <v>6.0</v>
       </c>
-      <c r="C69" s="106"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="67"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="73"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -32118,8 +32283,8 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -32146,14 +32311,14 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="117" t="s">
-        <v>50</v>
+      <c r="B71" s="124" t="s">
+        <v>67</v>
       </c>
-      <c r="C71" s="98"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="100"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -32176,23 +32341,23 @@
     </row>
     <row r="72" ht="18.0" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="101" t="s">
-        <v>59</v>
+      <c r="B72" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C72" s="102" t="s">
-        <v>60</v>
+      <c r="C72" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D72" s="102" t="s">
-        <v>61</v>
+      <c r="D72" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E72" s="102" t="s">
-        <v>62</v>
+      <c r="E72" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F72" s="103" t="s">
-        <v>63</v>
+      <c r="F72" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G72" s="104" t="s">
-        <v>64</v>
+      <c r="G72" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -32216,25 +32381,25 @@
     </row>
     <row r="73" ht="34.5" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="105">
+      <c r="B73" s="112">
         <v>1.0</v>
       </c>
-      <c r="C73" s="111" t="s">
-        <v>78</v>
+      <c r="C73" s="118" t="s">
+        <v>99</v>
       </c>
-      <c r="D73" s="125" t="s">
-        <v>79</v>
+      <c r="D73" s="132" t="s">
+        <v>100</v>
       </c>
-      <c r="E73" s="112" t="s">
-        <v>80</v>
+      <c r="E73" s="119" t="s">
+        <v>101</v>
       </c>
-      <c r="F73" s="109" t="s">
-        <v>76</v>
+      <c r="F73" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G73" s="109" t="s">
-        <v>81</v>
+      <c r="G73" s="116" t="s">
+        <v>102</v>
       </c>
-      <c r="H73" s="67"/>
+      <c r="H73" s="73"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -32256,23 +32421,23 @@
     </row>
     <row r="74" ht="34.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="105">
+      <c r="B74" s="112">
         <v>2.0</v>
       </c>
-      <c r="C74" s="111" t="s">
-        <v>82</v>
+      <c r="C74" s="118" t="s">
+        <v>103</v>
       </c>
-      <c r="D74" s="125" t="s">
-        <v>83</v>
+      <c r="D74" s="132" t="s">
+        <v>104</v>
       </c>
-      <c r="E74" s="112" t="s">
-        <v>84</v>
+      <c r="E74" s="119" t="s">
+        <v>105</v>
       </c>
-      <c r="F74" s="109" t="s">
-        <v>76</v>
+      <c r="F74" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G74" s="110"/>
-      <c r="H74" s="67"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="73"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -32294,15 +32459,15 @@
     </row>
     <row r="75" ht="34.5" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="105">
+      <c r="B75" s="112">
         <v>3.0</v>
       </c>
-      <c r="C75" s="106"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="110"/>
-      <c r="G75" s="110"/>
-      <c r="H75" s="67"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="73"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -32324,15 +32489,15 @@
     </row>
     <row r="76" ht="34.5" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="105">
+      <c r="B76" s="112">
         <v>4.0</v>
       </c>
-      <c r="C76" s="118"/>
-      <c r="D76" s="107"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="110"/>
-      <c r="G76" s="110"/>
-      <c r="H76" s="67"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="73"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -32354,15 +32519,15 @@
     </row>
     <row r="77" ht="34.5" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="105">
+      <c r="B77" s="112">
         <v>5.0</v>
       </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="110"/>
-      <c r="G77" s="110"/>
-      <c r="H77" s="67"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="73"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -32384,15 +32549,15 @@
     </row>
     <row r="78" ht="34.5" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="113">
+      <c r="B78" s="120">
         <v>6.0</v>
       </c>
-      <c r="C78" s="106"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="108"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="67"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="73"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -32414,8 +32579,8 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="115"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -32442,14 +32607,14 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="117" t="s">
-        <v>53</v>
+      <c r="B80" s="124" t="s">
+        <v>70</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="100"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -32472,23 +32637,23 @@
     </row>
     <row r="81" ht="18.0" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="101" t="s">
-        <v>59</v>
+      <c r="B81" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C81" s="102" t="s">
-        <v>60</v>
+      <c r="C81" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D81" s="102" t="s">
-        <v>61</v>
+      <c r="D81" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E81" s="102" t="s">
-        <v>62</v>
+      <c r="E81" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F81" s="103" t="s">
-        <v>63</v>
+      <c r="F81" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G81" s="104" t="s">
-        <v>64</v>
+      <c r="G81" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -32512,21 +32677,21 @@
     </row>
     <row r="82" ht="34.5" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="105">
+      <c r="B82" s="112">
         <v>1.0</v>
       </c>
-      <c r="C82" s="111" t="s">
-        <v>85</v>
+      <c r="C82" s="118" t="s">
+        <v>106</v>
       </c>
-      <c r="D82" s="107"/>
-      <c r="E82" s="112" t="s">
-        <v>86</v>
+      <c r="D82" s="114"/>
+      <c r="E82" s="119" t="s">
+        <v>107</v>
       </c>
-      <c r="F82" s="109" t="s">
-        <v>76</v>
+      <c r="F82" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G82" s="110"/>
-      <c r="H82" s="67"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="73"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -32548,23 +32713,23 @@
     </row>
     <row r="83" ht="34.5" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="105">
+      <c r="B83" s="112">
         <v>2.0</v>
       </c>
-      <c r="C83" s="111" t="s">
-        <v>87</v>
+      <c r="C83" s="118" t="s">
+        <v>108</v>
       </c>
-      <c r="D83" s="107"/>
-      <c r="E83" s="112" t="s">
-        <v>88</v>
+      <c r="D83" s="114"/>
+      <c r="E83" s="119" t="s">
+        <v>109</v>
       </c>
-      <c r="F83" s="109" t="s">
-        <v>76</v>
+      <c r="F83" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G83" s="109" t="s">
-        <v>89</v>
+      <c r="G83" s="116" t="s">
+        <v>110</v>
       </c>
-      <c r="H83" s="67"/>
+      <c r="H83" s="73"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -32586,21 +32751,21 @@
     </row>
     <row r="84" ht="34.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="105">
+      <c r="B84" s="112">
         <v>3.0</v>
       </c>
-      <c r="C84" s="111" t="s">
-        <v>90</v>
+      <c r="C84" s="118" t="s">
+        <v>111</v>
       </c>
-      <c r="D84" s="107"/>
-      <c r="E84" s="112" t="s">
-        <v>91</v>
+      <c r="D84" s="114"/>
+      <c r="E84" s="119" t="s">
+        <v>112</v>
       </c>
-      <c r="F84" s="109" t="s">
-        <v>76</v>
+      <c r="F84" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G84" s="110"/>
-      <c r="H84" s="67"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="73"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -32622,21 +32787,21 @@
     </row>
     <row r="85" ht="34.5" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="105">
+      <c r="B85" s="112">
         <v>4.0</v>
       </c>
-      <c r="C85" s="111" t="s">
-        <v>87</v>
+      <c r="C85" s="118" t="s">
+        <v>108</v>
       </c>
-      <c r="D85" s="107"/>
-      <c r="E85" s="112" t="s">
-        <v>92</v>
+      <c r="D85" s="114"/>
+      <c r="E85" s="119" t="s">
+        <v>113</v>
       </c>
-      <c r="F85" s="109" t="s">
-        <v>76</v>
+      <c r="F85" s="116" t="s">
+        <v>97</v>
       </c>
-      <c r="G85" s="110"/>
-      <c r="H85" s="67"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="73"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -32658,15 +32823,15 @@
     </row>
     <row r="86" ht="34.5" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="105">
+      <c r="B86" s="112">
         <v>5.0</v>
       </c>
-      <c r="C86" s="106"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
-      <c r="H86" s="67"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="73"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -32688,15 +32853,15 @@
     </row>
     <row r="87" ht="34.5" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="113">
+      <c r="B87" s="120">
         <v>6.0</v>
       </c>
-      <c r="C87" s="106"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="110"/>
-      <c r="H87" s="67"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="73"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -32718,8 +32883,8 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="115"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -32746,14 +32911,14 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="117" t="s">
-        <v>56</v>
+      <c r="B89" s="124" t="s">
+        <v>73</v>
       </c>
-      <c r="C89" s="98"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="107"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -32776,23 +32941,23 @@
     </row>
     <row r="90" ht="18.0" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="101" t="s">
-        <v>59</v>
+      <c r="B90" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C90" s="102" t="s">
-        <v>60</v>
+      <c r="C90" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D90" s="102" t="s">
-        <v>61</v>
+      <c r="D90" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E90" s="102" t="s">
-        <v>62</v>
+      <c r="E90" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F90" s="103" t="s">
-        <v>63</v>
+      <c r="F90" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G90" s="104" t="s">
-        <v>64</v>
+      <c r="G90" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -32816,15 +32981,21 @@
     </row>
     <row r="91" ht="34.5" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="105">
+      <c r="B91" s="112">
         <v>1.0</v>
       </c>
-      <c r="C91" s="106"/>
-      <c r="D91" s="107"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="67"/>
+      <c r="C91" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="114"/>
+      <c r="E91" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="117"/>
+      <c r="H91" s="73"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -32846,15 +33017,21 @@
     </row>
     <row r="92" ht="34.5" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="105">
+      <c r="B92" s="112">
         <v>2.0</v>
       </c>
-      <c r="C92" s="106"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="67"/>
+      <c r="C92" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="114"/>
+      <c r="E92" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="117"/>
+      <c r="H92" s="73"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -32876,15 +33053,21 @@
     </row>
     <row r="93" ht="34.5" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="105">
+      <c r="B93" s="112">
         <v>3.0</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="110"/>
-      <c r="G93" s="110"/>
-      <c r="H93" s="67"/>
+      <c r="C93" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="114"/>
+      <c r="E93" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="117"/>
+      <c r="H93" s="73"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -32906,15 +33089,21 @@
     </row>
     <row r="94" ht="34.5" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="105">
+      <c r="B94" s="112">
         <v>4.0</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="107"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110"/>
-      <c r="H94" s="67"/>
+      <c r="C94" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="114"/>
+      <c r="E94" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="117"/>
+      <c r="H94" s="73"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -32936,15 +33125,21 @@
     </row>
     <row r="95" ht="34.5" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="105">
+      <c r="B95" s="112">
         <v>5.0</v>
       </c>
-      <c r="C95" s="106"/>
-      <c r="D95" s="107"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="67"/>
+      <c r="C95" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="114"/>
+      <c r="E95" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="117"/>
+      <c r="H95" s="73"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -32966,15 +33161,15 @@
     </row>
     <row r="96" ht="34.5" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="113">
+      <c r="B96" s="120">
         <v>6.0</v>
       </c>
-      <c r="C96" s="106"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="110"/>
-      <c r="G96" s="110"/>
-      <c r="H96" s="67"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="73"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -32996,8 +33191,8 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="115"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="122"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -33024,14 +33219,14 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="117" t="s">
-        <v>57</v>
+      <c r="B98" s="124" t="s">
+        <v>77</v>
       </c>
-      <c r="C98" s="98"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="107"/>
+      <c r="G98" s="107"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -33054,23 +33249,23 @@
     </row>
     <row r="99" ht="18.0" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="101" t="s">
-        <v>59</v>
+      <c r="B99" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C99" s="102" t="s">
-        <v>60</v>
+      <c r="C99" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D99" s="102" t="s">
-        <v>61</v>
+      <c r="D99" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E99" s="102" t="s">
-        <v>62</v>
+      <c r="E99" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F99" s="103" t="s">
-        <v>63</v>
+      <c r="F99" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G99" s="104" t="s">
-        <v>64</v>
+      <c r="G99" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -33094,15 +33289,15 @@
     </row>
     <row r="100" ht="34.5" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="105">
+      <c r="B100" s="112">
         <v>1.0</v>
       </c>
-      <c r="C100" s="106"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="67"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="73"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -33124,15 +33319,15 @@
     </row>
     <row r="101" ht="34.5" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="105">
+      <c r="B101" s="112">
         <v>2.0</v>
       </c>
-      <c r="C101" s="106"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="110"/>
-      <c r="G101" s="110"/>
-      <c r="H101" s="67"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="115"/>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="73"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -33154,15 +33349,15 @@
     </row>
     <row r="102" ht="34.5" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="105">
+      <c r="B102" s="112">
         <v>3.0</v>
       </c>
-      <c r="C102" s="106"/>
-      <c r="D102" s="107"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
-      <c r="H102" s="67"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="73"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -33184,15 +33379,15 @@
     </row>
     <row r="103" ht="34.5" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="105">
+      <c r="B103" s="112">
         <v>4.0</v>
       </c>
-      <c r="C103" s="118"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="67"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="115"/>
+      <c r="F103" s="117"/>
+      <c r="G103" s="117"/>
+      <c r="H103" s="73"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -33214,15 +33409,15 @@
     </row>
     <row r="104" ht="34.5" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="105">
+      <c r="B104" s="112">
         <v>5.0</v>
       </c>
-      <c r="C104" s="106"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="110"/>
-      <c r="G104" s="110"/>
-      <c r="H104" s="67"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="73"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -33244,15 +33439,15 @@
     </row>
     <row r="105" ht="34.5" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="113">
+      <c r="B105" s="120">
         <v>6.0</v>
       </c>
-      <c r="C105" s="106"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="67"/>
+      <c r="C105" s="113"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="115"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="73"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -33274,8 +33469,8 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="115"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="122"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -33302,14 +33497,14 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="117" t="s">
-        <v>58</v>
+      <c r="B107" s="124" t="s">
+        <v>78</v>
       </c>
-      <c r="C107" s="98"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
-      <c r="G107" s="100"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="107"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -33332,23 +33527,23 @@
     </row>
     <row r="108" ht="18.0" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="101" t="s">
-        <v>59</v>
+      <c r="B108" s="108" t="s">
+        <v>79</v>
       </c>
-      <c r="C108" s="102" t="s">
-        <v>60</v>
+      <c r="C108" s="109" t="s">
+        <v>80</v>
       </c>
-      <c r="D108" s="102" t="s">
-        <v>61</v>
+      <c r="D108" s="109" t="s">
+        <v>81</v>
       </c>
-      <c r="E108" s="102" t="s">
-        <v>62</v>
+      <c r="E108" s="109" t="s">
+        <v>82</v>
       </c>
-      <c r="F108" s="103" t="s">
-        <v>63</v>
+      <c r="F108" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="G108" s="104" t="s">
-        <v>64</v>
+      <c r="G108" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -33372,15 +33567,15 @@
     </row>
     <row r="109" ht="34.5" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="105">
+      <c r="B109" s="112">
         <v>1.0</v>
       </c>
-      <c r="C109" s="106"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="110"/>
-      <c r="G109" s="110"/>
-      <c r="H109" s="67"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="117"/>
+      <c r="G109" s="117"/>
+      <c r="H109" s="73"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -33402,15 +33597,15 @@
     </row>
     <row r="110" ht="34.5" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="105">
+      <c r="B110" s="112">
         <v>2.0</v>
       </c>
-      <c r="C110" s="106"/>
-      <c r="D110" s="107"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="110"/>
-      <c r="G110" s="110"/>
-      <c r="H110" s="67"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="117"/>
+      <c r="G110" s="117"/>
+      <c r="H110" s="73"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -33432,15 +33627,15 @@
     </row>
     <row r="111" ht="34.5" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="105">
+      <c r="B111" s="112">
         <v>3.0</v>
       </c>
-      <c r="C111" s="106"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="110"/>
-      <c r="G111" s="110"/>
-      <c r="H111" s="67"/>
+      <c r="C111" s="113"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="117"/>
+      <c r="G111" s="117"/>
+      <c r="H111" s="73"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -33462,15 +33657,15 @@
     </row>
     <row r="112" ht="34.5" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="105">
+      <c r="B112" s="112">
         <v>4.0</v>
       </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="107"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="110"/>
-      <c r="G112" s="110"/>
-      <c r="H112" s="67"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="115"/>
+      <c r="F112" s="117"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="73"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -33492,15 +33687,15 @@
     </row>
     <row r="113" ht="34.5" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="105">
+      <c r="B113" s="112">
         <v>5.0</v>
       </c>
-      <c r="C113" s="106"/>
-      <c r="D113" s="107"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="110"/>
-      <c r="G113" s="110"/>
-      <c r="H113" s="67"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="117"/>
+      <c r="G113" s="117"/>
+      <c r="H113" s="73"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -33522,15 +33717,15 @@
     </row>
     <row r="114" ht="34.5" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="113">
+      <c r="B114" s="120">
         <v>6.0</v>
       </c>
-      <c r="C114" s="106"/>
-      <c r="D114" s="114"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="110"/>
-      <c r="G114" s="110"/>
-      <c r="H114" s="67"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="115"/>
+      <c r="F114" s="117"/>
+      <c r="G114" s="117"/>
+      <c r="H114" s="73"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -58380,9 +58575,9 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B80:C80"/>
